--- a/cart_items-link.xlsx
+++ b/cart_items-link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Office-Work\hq360\wireless-product-scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3A976-FBE8-4868-8C05-A84747AE102B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D90FB-7494-4D52-BE6F-FA91C512414B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Product Name</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>https://www.balajiwireless.com/click-impact-series-galaxy-s24-fe-case?color=1768</t>
-  </si>
-  <si>
-    <t>Galaxy S24 FE Alto 2 Snaptech Case</t>
   </si>
   <si>
     <t>Galaxy S25 CLICK Clear Tempered Glass</t>
@@ -255,9 +252,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -562,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,282 +571,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B33" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
